--- a/beams-test.xlsx
+++ b/beams-test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhampleman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhampleman/Katalon Studio/Exede_Beam_Tests_v2.1 copy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE94D8C-17FD-774F-808E-3D5B67D93359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807CD50D-4277-CC4E-A540-1F971FC669A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="73100" yWindow="-16100" windowWidth="34680" windowHeight="20560" xr2:uid="{CA3EBB14-1765-FE45-ABE3-2D37D1D7B544}"/>
   </bookViews>
@@ -1723,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468A8938-1A64-0541-960A-456FB4DD74C7}">
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="K130" sqref="K130"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5736,8 +5736,8 @@
       <c r="E129" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="F129" t="s">
-        <v>276</v>
+      <c r="F129" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -5746,7 +5746,7 @@
         <v>95932</v>
       </c>
       <c r="K129" s="6">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>

--- a/beams-test.xlsx
+++ b/beams-test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhampleman/Katalon Studio/Exede_Beam_Tests_v2.1 copy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhampleman/jenkins-beam-tests-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807CD50D-4277-CC4E-A540-1F971FC669A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B7E88-EC01-4C42-8200-2348A8234AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73100" yWindow="-16100" windowWidth="34680" windowHeight="20560" xr2:uid="{CA3EBB14-1765-FE45-ABE3-2D37D1D7B544}"/>
+    <workbookView xWindow="34180" yWindow="-16100" windowWidth="34680" windowHeight="20040" xr2:uid="{CA3EBB14-1765-FE45-ABE3-2D37D1D7B544}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:M145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+      <selection activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5746,7 +5746,7 @@
         <v>95932</v>
       </c>
       <c r="K129" s="6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
